--- a/ru/downloads/data-excel/11.2.1.xlsx
+++ b/ru/downloads/data-excel/11.2.1.xlsx
@@ -516,7 +516,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -560,7 +560,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -604,6 +603,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,7 +934,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -937,25 +945,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -968,11 +977,14 @@
       <c r="D4" s="5">
         <v>2018</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -985,23 +997,27 @@
       <c r="D5" s="3">
         <v>48.5</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>52.21498017277078</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="F5" s="18">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="E7" s="9">
         <v>63.551047461620207</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="9">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1034,28 +1053,32 @@
       <c r="E8" s="9">
         <v>45.472134187404613</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="9">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9">
@@ -1064,15 +1087,18 @@
       <c r="E10" s="9">
         <v>53.271701406782753</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="9">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="9">
@@ -1081,28 +1107,32 @@
       <c r="E11" s="9">
         <v>51.333357680619827</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="F11" s="9">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="9">
@@ -1111,15 +1141,18 @@
       <c r="E13" s="9">
         <v>58.744300796571174</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="9">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="9">
@@ -1128,15 +1161,18 @@
       <c r="E14" s="9">
         <v>28.903644936380847</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="9">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="9">
@@ -1145,15 +1181,18 @@
       <c r="E15" s="9">
         <v>74.566372679206467</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="9">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="9">
@@ -1161,16 +1200,19 @@
       </c>
       <c r="E16" s="9">
         <v>46.956365497950493</v>
+      </c>
+      <c r="F16" s="9">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="9">
@@ -1178,16 +1220,19 @@
       </c>
       <c r="E17" s="9">
         <v>48.545801289625764</v>
+      </c>
+      <c r="F17" s="9">
+        <v>38.5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="9">
@@ -1195,16 +1240,19 @@
       </c>
       <c r="E18" s="9">
         <v>44.503621844304575</v>
+      </c>
+      <c r="F18" s="9">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="9">
@@ -1212,16 +1260,19 @@
       </c>
       <c r="E19" s="9">
         <v>54.516309353388422</v>
+      </c>
+      <c r="F19" s="9">
+        <v>54.6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="9">
@@ -1229,16 +1280,19 @@
       </c>
       <c r="E20" s="9">
         <v>59.847788461062386</v>
+      </c>
+      <c r="F20" s="9">
+        <v>61.3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>73</v>
       </c>
       <c r="D21" s="9">
@@ -1247,19 +1301,23 @@
       <c r="E21" s="9">
         <v>94.985632311792457</v>
       </c>
+      <c r="F21" s="9">
+        <v>93.2</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>103</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1277,6 +1335,9 @@
       <c r="E23" s="9">
         <v>52.979920455067457</v>
       </c>
+      <c r="F23" s="9">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1294,6 +1355,9 @@
       <c r="E24" s="9">
         <v>52.777791808065061</v>
       </c>
+      <c r="F24" s="9">
+        <v>51.5</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1311,19 +1375,23 @@
       <c r="E25" s="9">
         <v>49.028951111361195</v>
       </c>
+      <c r="F25" s="9">
+        <v>47.9</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1341,6 +1409,9 @@
       <c r="E27" s="9">
         <v>51.492251224434185</v>
       </c>
+      <c r="F27" s="9">
+        <v>49.3</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1358,6 +1429,9 @@
       <c r="E28" s="9">
         <v>52.713048090824572</v>
       </c>
+      <c r="F28" s="9">
+        <v>52.4</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1375,6 +1449,9 @@
       <c r="E29" s="9">
         <v>48.723950354768604</v>
       </c>
+      <c r="F29" s="9">
+        <v>46.6</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1392,6 +1469,9 @@
       <c r="E30" s="9">
         <v>55.333194548779296</v>
       </c>
+      <c r="F30" s="9">
+        <v>55.2</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -1409,30 +1489,33 @@
       <c r="E31" s="12">
         <v>58.32449088688341</v>
       </c>
+      <c r="F31" s="12">
+        <v>56.6</v>
+      </c>
     </row>
     <row r="32" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>88</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D33" s="9">
@@ -1441,17 +1524,19 @@
       <c r="E33" s="9">
         <v>40.12008976430198</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
+      <c r="F33" s="33">
+        <v>44.52735098573924</v>
+      </c>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="9">
@@ -1460,17 +1545,19 @@
       <c r="E34" s="9">
         <v>50.779257929470738</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
+      <c r="F34" s="33">
+        <v>49.788535609150117</v>
+      </c>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>94</v>
       </c>
       <c r="D35" s="9">
@@ -1479,17 +1566,19 @@
       <c r="E35" s="9">
         <v>52.031241354166362</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
+      <c r="F35" s="33">
+        <v>52.165589704616806</v>
+      </c>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>96</v>
       </c>
       <c r="D36" s="9">
@@ -1498,17 +1587,19 @@
       <c r="E36" s="9">
         <v>55.909722002143759</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
+      <c r="F36" s="33">
+        <v>54.891441042724587</v>
+      </c>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="10">
@@ -1517,8 +1608,10 @@
       <c r="E37" s="10">
         <v>58.21414556949383</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="16"/>
+      <c r="F37" s="34">
+        <v>54.537503974844626</v>
+      </c>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">

--- a/ru/downloads/data-excel/11.2.1.xlsx
+++ b/ru/downloads/data-excel/11.2.1.xlsx
@@ -356,7 +356,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,13 +399,6 @@
       <b/>
       <i/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -510,11 +503,11 @@
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -560,13 +553,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -578,22 +568,22 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -614,6 +604,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -926,7 +917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -934,7 +927,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -945,26 +938,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -977,14 +971,17 @@
       <c r="D4" s="5">
         <v>2018</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>2019</v>
       </c>
       <c r="F4" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -997,27 +994,31 @@
       <c r="D5" s="3">
         <v>48.5</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>52.21498017277078</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>50.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="G5" s="17">
+        <v>53.51234161945618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1036,8 +1037,11 @@
       <c r="F7" s="9">
         <v>63.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="9">
+        <v>66.871572598437012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1056,29 +1060,33 @@
       <c r="F8" s="9">
         <v>42.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="9">
+        <v>45.180133619518266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="9">
@@ -1090,15 +1098,18 @@
       <c r="F10" s="9">
         <v>51.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="9">
+        <v>53.931030072450127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="9">
@@ -1110,29 +1121,33 @@
       <c r="F11" s="9">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="G11" s="9">
+        <v>53.161154208027604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="9">
@@ -1144,15 +1159,18 @@
       <c r="F13" s="9">
         <v>59.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="9">
+        <v>51.771566608984685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="9">
@@ -1164,15 +1182,18 @@
       <c r="F14" s="9">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="9">
+        <v>32.176015690501167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="9">
@@ -1184,15 +1205,18 @@
       <c r="F15" s="9">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="9">
+        <v>78.366625095958852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="9">
@@ -1203,16 +1227,19 @@
       </c>
       <c r="F16" s="9">
         <v>45</v>
+      </c>
+      <c r="G16" s="9">
+        <v>71.548846768947783</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="9">
@@ -1223,16 +1250,19 @@
       </c>
       <c r="F17" s="9">
         <v>38.5</v>
+      </c>
+      <c r="G17" s="9">
+        <v>38.314249611200928</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="9">
@@ -1243,16 +1273,19 @@
       </c>
       <c r="F18" s="9">
         <v>47</v>
+      </c>
+      <c r="G18" s="9">
+        <v>45.946405870476767</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="9">
@@ -1263,16 +1296,19 @@
       </c>
       <c r="F19" s="9">
         <v>54.6</v>
+      </c>
+      <c r="G19" s="9">
+        <v>58.463070851817896</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="9">
@@ -1283,16 +1319,19 @@
       </c>
       <c r="F20" s="9">
         <v>61.3</v>
+      </c>
+      <c r="G20" s="9">
+        <v>67.41358713478445</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D21" s="9">
@@ -1304,20 +1343,24 @@
       <c r="F21" s="9">
         <v>93.2</v>
       </c>
+      <c r="G21" s="9">
+        <v>94.661991680690974</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>103</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1338,6 +1381,9 @@
       <c r="F23" s="9">
         <v>51</v>
       </c>
+      <c r="G23" s="9">
+        <v>52.831652000533559</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1358,6 +1404,9 @@
       <c r="F24" s="9">
         <v>51.5</v>
       </c>
+      <c r="G24" s="9">
+        <v>55.237569236259247</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1378,20 +1427,24 @@
       <c r="F25" s="9">
         <v>47.9</v>
       </c>
+      <c r="G25" s="9">
+        <v>49.39707084446713</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1412,6 +1465,9 @@
       <c r="F27" s="9">
         <v>49.3</v>
       </c>
+      <c r="G27" s="9">
+        <v>42.707452760784747</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1432,6 +1488,9 @@
       <c r="F28" s="9">
         <v>52.4</v>
       </c>
+      <c r="G28" s="9">
+        <v>55.661173198678433</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1452,6 +1511,9 @@
       <c r="F29" s="9">
         <v>46.6</v>
       </c>
+      <c r="G29" s="9">
+        <v>49.484244299973746</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1472,6 +1534,9 @@
       <c r="F30" s="9">
         <v>55.2</v>
       </c>
+      <c r="G30" s="9">
+        <v>58.921695312180596</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -1492,30 +1557,33 @@
       <c r="F31" s="12">
         <v>56.6</v>
       </c>
+      <c r="G31" s="9">
+        <v>60.257647550127068</v>
+      </c>
     </row>
     <row r="32" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>88</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="15"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D33" s="9">
@@ -1524,19 +1592,21 @@
       <c r="E33" s="9">
         <v>40.12008976430198</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="32">
         <v>44.52735098573924</v>
       </c>
-      <c r="G33" s="15"/>
+      <c r="G33" s="34">
+        <v>44.684196227954708</v>
+      </c>
     </row>
     <row r="34" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="9">
@@ -1545,19 +1615,21 @@
       <c r="E34" s="9">
         <v>50.779257929470738</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="32">
         <v>49.788535609150117</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="34">
+        <v>52.230183183569579</v>
+      </c>
     </row>
     <row r="35" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D35" s="9">
@@ -1566,19 +1638,21 @@
       <c r="E35" s="9">
         <v>52.031241354166362</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="32">
         <v>52.165589704616806</v>
       </c>
-      <c r="G35" s="15"/>
+      <c r="G35" s="34">
+        <v>56.39114246304765</v>
+      </c>
     </row>
     <row r="36" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D36" s="9">
@@ -1587,19 +1661,21 @@
       <c r="E36" s="9">
         <v>55.909722002143759</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="32">
         <v>54.891441042724587</v>
       </c>
-      <c r="G36" s="15"/>
+      <c r="G36" s="34">
+        <v>56.392024675361114</v>
+      </c>
     </row>
     <row r="37" spans="1:7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="10">
@@ -1608,10 +1684,12 @@
       <c r="E37" s="10">
         <v>58.21414556949383</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="33">
         <v>54.537503974844626</v>
       </c>
-      <c r="G37" s="15"/>
+      <c r="G37" s="10">
+        <v>59.84288599012875</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">

--- a/ru/downloads/data-excel/11.2.1.xlsx
+++ b/ru/downloads/data-excel/11.2.1.xlsx
@@ -915,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -938,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -957,8 +957,9 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -980,8 +981,11 @@
       <c r="G4" s="5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1003,8 +1007,11 @@
       <c r="G5" s="17">
         <v>53.51234161945618</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="17">
+        <v>55.235084738956786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>30</v>
       </c>
@@ -1017,8 +1024,9 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1040,8 +1048,11 @@
       <c r="G7" s="9">
         <v>66.871572598437012</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="9">
+        <v>64.450017607785398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1063,8 +1074,11 @@
       <c r="G8" s="9">
         <v>45.180133619518266</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="9">
+        <v>49.405956418365484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
@@ -1078,8 +1092,9 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1101,8 +1116,11 @@
       <c r="G10" s="9">
         <v>53.931030072450127</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="9">
+        <v>55.892960287917163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1124,8 +1142,11 @@
       <c r="G11" s="9">
         <v>53.161154208027604</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="9">
+        <v>54.686831758908859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>44</v>
       </c>
@@ -1139,8 +1160,9 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1162,8 +1184,11 @@
       <c r="G13" s="9">
         <v>51.771566608984685</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="9">
+        <v>48.307921258423271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1185,8 +1210,11 @@
       <c r="G14" s="9">
         <v>32.176015690501167</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="9">
+        <v>44.267416617612632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1208,8 +1236,11 @@
       <c r="G15" s="9">
         <v>78.366625095958852</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="9">
+        <v>68.714870143831632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -1231,8 +1262,11 @@
       <c r="G16" s="9">
         <v>71.548846768947783</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="9">
+        <v>57.221320510113202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1254,8 +1288,11 @@
       <c r="G17" s="9">
         <v>38.314249611200928</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="9">
+        <v>43.112979304223508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -1277,8 +1314,11 @@
       <c r="G18" s="9">
         <v>45.946405870476767</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="9">
+        <v>43.763926274435434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1300,8 +1340,11 @@
       <c r="G19" s="9">
         <v>58.463070851817896</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="9">
+        <v>60.42899593464336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -1323,8 +1366,11 @@
       <c r="G20" s="9">
         <v>67.41358713478445</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="9">
+        <v>66.443201031331967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -1346,8 +1392,11 @@
       <c r="G21" s="9">
         <v>94.661991680690974</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="9">
+        <v>84.159995715788298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>102</v>
       </c>
@@ -1361,8 +1410,9 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
@@ -1384,8 +1434,11 @@
       <c r="G23" s="9">
         <v>52.831652000533559</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="9">
+        <v>54.231054935139049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -1407,8 +1460,11 @@
       <c r="G24" s="9">
         <v>55.237569236259247</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="9">
+        <v>56.739347924847948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -1430,8 +1486,11 @@
       <c r="G25" s="9">
         <v>49.39707084446713</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="9">
+        <v>52.285658613088522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>74</v>
       </c>
@@ -1445,8 +1504,9 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -1468,8 +1528,11 @@
       <c r="G27" s="9">
         <v>42.707452760784747</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="9">
+        <v>53.09561038437198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -1491,8 +1554,11 @@
       <c r="G28" s="9">
         <v>55.661173198678433</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="9">
+        <v>54.803777637975152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -1514,8 +1580,11 @@
       <c r="G29" s="9">
         <v>49.484244299973746</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="9">
+        <v>51.867109861970469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -1537,8 +1606,11 @@
       <c r="G30" s="9">
         <v>58.921695312180596</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="9">
+        <v>58.059840400040898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -1560,8 +1632,11 @@
       <c r="G31" s="9">
         <v>60.257647550127068</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H31" s="9">
+        <v>62.006458632506479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>87</v>
       </c>
@@ -1575,8 +1650,9 @@
       <c r="E32" s="18"/>
       <c r="F32" s="31"/>
       <c r="G32" s="34"/>
-    </row>
-    <row r="33" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>89</v>
       </c>
@@ -1598,8 +1674,11 @@
       <c r="G33" s="34">
         <v>44.684196227954708</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H33" s="34">
+        <v>48.930112899436295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>91</v>
       </c>
@@ -1621,8 +1700,11 @@
       <c r="G34" s="34">
         <v>52.230183183569579</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H34" s="34">
+        <v>52.789868000166784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>93</v>
       </c>
@@ -1644,8 +1726,11 @@
       <c r="G35" s="34">
         <v>56.39114246304765</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H35" s="34">
+        <v>54.901887367193908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>95</v>
       </c>
@@ -1667,8 +1752,11 @@
       <c r="G36" s="34">
         <v>56.392024675361114</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="34">
+        <v>60.094111873908361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
         <v>97</v>
       </c>
@@ -1690,8 +1778,11 @@
       <c r="G37" s="10">
         <v>59.84288599012875</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="10">
+        <v>62.111607472761982</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>99</v>
       </c>

--- a/ru/downloads/data-excel/11.2.1.xlsx
+++ b/ru/downloads/data-excel/11.2.1.xlsx
@@ -915,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -938,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -957,9 +957,8 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -981,11 +980,8 @@
       <c r="G4" s="5">
         <v>2021</v>
       </c>
-      <c r="H4" s="5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1007,11 +1003,8 @@
       <c r="G5" s="17">
         <v>53.51234161945618</v>
       </c>
-      <c r="H5" s="17">
-        <v>55.235084738956786</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>30</v>
       </c>
@@ -1024,9 +1017,8 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1048,11 +1040,8 @@
       <c r="G7" s="9">
         <v>66.871572598437012</v>
       </c>
-      <c r="H7" s="9">
-        <v>64.450017607785398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1074,11 +1063,8 @@
       <c r="G8" s="9">
         <v>45.180133619518266</v>
       </c>
-      <c r="H8" s="9">
-        <v>49.405956418365484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
@@ -1092,9 +1078,8 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1116,11 +1101,8 @@
       <c r="G10" s="9">
         <v>53.931030072450127</v>
       </c>
-      <c r="H10" s="9">
-        <v>55.892960287917163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1142,11 +1124,8 @@
       <c r="G11" s="9">
         <v>53.161154208027604</v>
       </c>
-      <c r="H11" s="9">
-        <v>54.686831758908859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>44</v>
       </c>
@@ -1160,9 +1139,8 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1184,11 +1162,8 @@
       <c r="G13" s="9">
         <v>51.771566608984685</v>
       </c>
-      <c r="H13" s="9">
-        <v>48.307921258423271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1210,11 +1185,8 @@
       <c r="G14" s="9">
         <v>32.176015690501167</v>
       </c>
-      <c r="H14" s="9">
-        <v>44.267416617612632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1236,11 +1208,8 @@
       <c r="G15" s="9">
         <v>78.366625095958852</v>
       </c>
-      <c r="H15" s="9">
-        <v>68.714870143831632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -1262,11 +1231,8 @@
       <c r="G16" s="9">
         <v>71.548846768947783</v>
       </c>
-      <c r="H16" s="9">
-        <v>57.221320510113202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1288,11 +1254,8 @@
       <c r="G17" s="9">
         <v>38.314249611200928</v>
       </c>
-      <c r="H17" s="9">
-        <v>43.112979304223508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -1314,11 +1277,8 @@
       <c r="G18" s="9">
         <v>45.946405870476767</v>
       </c>
-      <c r="H18" s="9">
-        <v>43.763926274435434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1340,11 +1300,8 @@
       <c r="G19" s="9">
         <v>58.463070851817896</v>
       </c>
-      <c r="H19" s="9">
-        <v>60.42899593464336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -1366,11 +1323,8 @@
       <c r="G20" s="9">
         <v>67.41358713478445</v>
       </c>
-      <c r="H20" s="9">
-        <v>66.443201031331967</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -1392,11 +1346,8 @@
       <c r="G21" s="9">
         <v>94.661991680690974</v>
       </c>
-      <c r="H21" s="9">
-        <v>84.159995715788298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>102</v>
       </c>
@@ -1410,9 +1361,8 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
@@ -1434,11 +1384,8 @@
       <c r="G23" s="9">
         <v>52.831652000533559</v>
       </c>
-      <c r="H23" s="9">
-        <v>54.231054935139049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -1460,11 +1407,8 @@
       <c r="G24" s="9">
         <v>55.237569236259247</v>
       </c>
-      <c r="H24" s="9">
-        <v>56.739347924847948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -1486,11 +1430,8 @@
       <c r="G25" s="9">
         <v>49.39707084446713</v>
       </c>
-      <c r="H25" s="9">
-        <v>52.285658613088522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>74</v>
       </c>
@@ -1504,9 +1445,8 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -1528,11 +1468,8 @@
       <c r="G27" s="9">
         <v>42.707452760784747</v>
       </c>
-      <c r="H27" s="9">
-        <v>53.09561038437198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -1554,11 +1491,8 @@
       <c r="G28" s="9">
         <v>55.661173198678433</v>
       </c>
-      <c r="H28" s="9">
-        <v>54.803777637975152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -1580,11 +1514,8 @@
       <c r="G29" s="9">
         <v>49.484244299973746</v>
       </c>
-      <c r="H29" s="9">
-        <v>51.867109861970469</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -1606,11 +1537,8 @@
       <c r="G30" s="9">
         <v>58.921695312180596</v>
       </c>
-      <c r="H30" s="9">
-        <v>58.059840400040898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>85</v>
       </c>
@@ -1632,11 +1560,8 @@
       <c r="G31" s="9">
         <v>60.257647550127068</v>
       </c>
-      <c r="H31" s="9">
-        <v>62.006458632506479</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>87</v>
       </c>
@@ -1650,9 +1575,8 @@
       <c r="E32" s="18"/>
       <c r="F32" s="31"/>
       <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>89</v>
       </c>
@@ -1674,11 +1598,8 @@
       <c r="G33" s="34">
         <v>44.684196227954708</v>
       </c>
-      <c r="H33" s="34">
-        <v>48.930112899436295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>91</v>
       </c>
@@ -1700,11 +1621,8 @@
       <c r="G34" s="34">
         <v>52.230183183569579</v>
       </c>
-      <c r="H34" s="34">
-        <v>52.789868000166784</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>93</v>
       </c>
@@ -1726,11 +1644,8 @@
       <c r="G35" s="34">
         <v>56.39114246304765</v>
       </c>
-      <c r="H35" s="34">
-        <v>54.901887367193908</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>95</v>
       </c>
@@ -1752,11 +1667,8 @@
       <c r="G36" s="34">
         <v>56.392024675361114</v>
       </c>
-      <c r="H36" s="34">
-        <v>60.094111873908361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
         <v>97</v>
       </c>
@@ -1778,11 +1690,8 @@
       <c r="G37" s="10">
         <v>59.84288599012875</v>
       </c>
-      <c r="H37" s="10">
-        <v>62.111607472761982</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>99</v>
       </c>

--- a/ru/downloads/data-excel/11.2.1.xlsx
+++ b/ru/downloads/data-excel/11.2.1.xlsx
@@ -22,9 +22,6 @@
     <t>(в процентах)</t>
   </si>
   <si>
-    <t>(in percents)</t>
-  </si>
-  <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
   <si>
@@ -347,6 +344,9 @@
   </si>
   <si>
     <t>Эмгекке жарактуу жаштан жогорку калк</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +473,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -532,9 +539,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -605,6 +609,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -915,11 +922,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -927,29 +932,29 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -958,21 +963,22 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>2018</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>2019</v>
       </c>
       <c r="F4" s="5">
@@ -984,817 +990,907 @@
       <c r="H4" s="5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="3">
         <v>48.5</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>52.21498017277078</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>50.7</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>53.51234161945618</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>55.235084738956786</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="I5" s="16">
+        <v>55.603276734707606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8">
+        <v>66</v>
+      </c>
+      <c r="E7" s="8">
+        <v>63.551047461620207</v>
+      </c>
+      <c r="F7" s="8">
+        <v>63.4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>66.871572598437012</v>
+      </c>
+      <c r="H7" s="8">
+        <v>64.450017607785398</v>
+      </c>
+      <c r="I7" s="8">
+        <v>64.815870068283189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="8">
+        <v>38.1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>45.472134187404613</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42.9</v>
+      </c>
+      <c r="G8" s="8">
+        <v>45.180133619518266</v>
+      </c>
+      <c r="H8" s="8">
+        <v>49.405956418365484</v>
+      </c>
+      <c r="I8" s="8">
+        <v>49.843423517048826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8">
+        <v>47.9</v>
+      </c>
+      <c r="E10" s="8">
+        <v>53.271701406782753</v>
+      </c>
+      <c r="F10" s="8">
+        <v>51.2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>53.931030072450127</v>
+      </c>
+      <c r="H10" s="8">
+        <v>55.892960287917163</v>
+      </c>
+      <c r="I10" s="8">
+        <v>55.846852199084964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="8">
+        <v>49</v>
+      </c>
+      <c r="E11" s="8">
+        <v>51.333357680619827</v>
+      </c>
+      <c r="F11" s="8">
+        <v>50.3</v>
+      </c>
+      <c r="G11" s="8">
+        <v>53.161154208027604</v>
+      </c>
+      <c r="H11" s="8">
+        <v>54.686831758908859</v>
+      </c>
+      <c r="I11" s="8">
+        <v>55.396573524258045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8">
+        <v>32.9</v>
+      </c>
+      <c r="E13" s="8">
+        <v>58.744300796571174</v>
+      </c>
+      <c r="F13" s="8">
+        <v>59.3</v>
+      </c>
+      <c r="G13" s="8">
+        <v>51.771566608984685</v>
+      </c>
+      <c r="H13" s="8">
+        <v>48.307921258423271</v>
+      </c>
+      <c r="I13" s="8">
+        <v>56.841459998341435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="8">
+        <v>18.3</v>
+      </c>
+      <c r="E14" s="8">
+        <v>28.903644936380847</v>
+      </c>
+      <c r="F14" s="8">
+        <v>31.4</v>
+      </c>
+      <c r="G14" s="8">
+        <v>32.176015690501167</v>
+      </c>
+      <c r="H14" s="8">
+        <v>44.267416617612632</v>
+      </c>
+      <c r="I14" s="8">
+        <v>39.405155466620641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="8">
+        <v>72.5</v>
+      </c>
+      <c r="E15" s="8">
+        <v>74.566372679206467</v>
+      </c>
+      <c r="F15" s="8">
+        <v>70.3</v>
+      </c>
+      <c r="G15" s="8">
+        <v>78.366625095958852</v>
+      </c>
+      <c r="H15" s="8">
+        <v>68.714870143831632</v>
+      </c>
+      <c r="I15" s="8">
+        <v>71.515443042037774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="8">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E16" s="8">
+        <v>46.956365497950493</v>
+      </c>
+      <c r="F16" s="8">
+        <v>45</v>
+      </c>
+      <c r="G16" s="8">
+        <v>71.548846768947783</v>
+      </c>
+      <c r="H16" s="8">
+        <v>57.221320510113202</v>
+      </c>
+      <c r="I16" s="8">
+        <v>59.187474880557509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="8">
+        <v>39.6</v>
+      </c>
+      <c r="E17" s="8">
+        <v>48.545801289625764</v>
+      </c>
+      <c r="F17" s="8">
+        <v>38.5</v>
+      </c>
+      <c r="G17" s="8">
+        <v>38.314249611200928</v>
+      </c>
+      <c r="H17" s="8">
+        <v>43.112979304223508</v>
+      </c>
+      <c r="I17" s="8">
+        <v>44.681041326587682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="8">
+        <v>42.2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>44.503621844304575</v>
+      </c>
+      <c r="F18" s="8">
+        <v>47</v>
+      </c>
+      <c r="G18" s="8">
+        <v>45.946405870476767</v>
+      </c>
+      <c r="H18" s="8">
+        <v>43.763926274435434</v>
+      </c>
+      <c r="I18" s="8">
+        <v>41.791860091300215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="9">
-        <v>63.551047461620207</v>
-      </c>
-      <c r="F7" s="9">
-        <v>63.4</v>
-      </c>
-      <c r="G7" s="9">
-        <v>66.871572598437012</v>
-      </c>
-      <c r="H7" s="9">
-        <v>64.450017607785398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="9">
-        <v>38.1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>45.472134187404613</v>
-      </c>
-      <c r="F8" s="9">
-        <v>42.9</v>
-      </c>
-      <c r="G8" s="9">
-        <v>45.180133619518266</v>
-      </c>
-      <c r="H8" s="9">
-        <v>49.405956418365484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="D19" s="8">
+        <v>63.1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>54.516309353388422</v>
+      </c>
+      <c r="F19" s="8">
+        <v>54.6</v>
+      </c>
+      <c r="G19" s="8">
+        <v>58.463070851817896</v>
+      </c>
+      <c r="H19" s="8">
+        <v>60.42899593464336</v>
+      </c>
+      <c r="I19" s="8">
+        <v>63.928870055380102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="8">
+        <v>67.7</v>
+      </c>
+      <c r="E20" s="8">
+        <v>59.847788461062386</v>
+      </c>
+      <c r="F20" s="8">
+        <v>61.3</v>
+      </c>
+      <c r="G20" s="8">
+        <v>67.41358713478445</v>
+      </c>
+      <c r="H20" s="8">
+        <v>66.443201031331967</v>
+      </c>
+      <c r="I20" s="8">
+        <v>60.544747238121026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="8">
+        <v>94.6</v>
+      </c>
+      <c r="E21" s="8">
+        <v>94.985632311792457</v>
+      </c>
+      <c r="F21" s="8">
+        <v>93.2</v>
+      </c>
+      <c r="G21" s="8">
+        <v>94.661991680690974</v>
+      </c>
+      <c r="H21" s="8">
+        <v>84.159995715788298</v>
+      </c>
+      <c r="I21" s="8">
+        <v>97.912546195661392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="E23" s="8">
+        <v>52.979920455067457</v>
+      </c>
+      <c r="F23" s="8">
+        <v>51</v>
+      </c>
+      <c r="G23" s="8">
+        <v>52.831652000533559</v>
+      </c>
+      <c r="H23" s="8">
+        <v>54.231054935139049</v>
+      </c>
+      <c r="I23" s="8">
+        <v>53.843789071495877</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="8">
+        <v>48.9</v>
+      </c>
+      <c r="E24" s="8">
+        <v>52.777791808065061</v>
+      </c>
+      <c r="F24" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="G24" s="8">
+        <v>55.237569236259247</v>
+      </c>
+      <c r="H24" s="8">
+        <v>56.739347924847948</v>
+      </c>
+      <c r="I24" s="8">
+        <v>56.474118627705991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="8">
+        <v>48.1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>49.028951111361195</v>
+      </c>
+      <c r="F25" s="8">
         <v>47.9</v>
       </c>
-      <c r="E10" s="9">
-        <v>53.271701406782753</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="G25" s="8">
+        <v>49.39707084446713</v>
+      </c>
+      <c r="H25" s="8">
+        <v>52.285658613088522</v>
+      </c>
+      <c r="I25" s="8">
+        <v>55.561580291086344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>51.492251224434185</v>
+      </c>
+      <c r="F27" s="8">
+        <v>49.3</v>
+      </c>
+      <c r="G27" s="8">
+        <v>42.707452760784747</v>
+      </c>
+      <c r="H27" s="8">
+        <v>53.09561038437198</v>
+      </c>
+      <c r="I27" s="8">
+        <v>52.606025465127615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="8">
         <v>51.2</v>
       </c>
-      <c r="G10" s="9">
-        <v>53.931030072450127</v>
-      </c>
-      <c r="H10" s="9">
-        <v>55.892960287917163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="9">
-        <v>49</v>
-      </c>
-      <c r="E11" s="9">
-        <v>51.333357680619827</v>
-      </c>
-      <c r="F11" s="9">
-        <v>50.3</v>
-      </c>
-      <c r="G11" s="9">
-        <v>53.161154208027604</v>
-      </c>
-      <c r="H11" s="9">
-        <v>54.686831758908859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="9">
-        <v>32.9</v>
-      </c>
-      <c r="E13" s="9">
-        <v>58.744300796571174</v>
-      </c>
-      <c r="F13" s="9">
-        <v>59.3</v>
-      </c>
-      <c r="G13" s="9">
-        <v>51.771566608984685</v>
-      </c>
-      <c r="H13" s="9">
-        <v>48.307921258423271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="9">
-        <v>18.3</v>
-      </c>
-      <c r="E14" s="9">
-        <v>28.903644936380847</v>
-      </c>
-      <c r="F14" s="9">
-        <v>31.4</v>
-      </c>
-      <c r="G14" s="9">
-        <v>32.176015690501167</v>
-      </c>
-      <c r="H14" s="9">
-        <v>44.267416617612632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="9">
-        <v>72.5</v>
-      </c>
-      <c r="E15" s="9">
-        <v>74.566372679206467</v>
-      </c>
-      <c r="F15" s="9">
-        <v>70.3</v>
-      </c>
-      <c r="G15" s="9">
-        <v>78.366625095958852</v>
-      </c>
-      <c r="H15" s="9">
-        <v>68.714870143831632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="E28" s="8">
+        <v>52.713048090824572</v>
+      </c>
+      <c r="F28" s="8">
+        <v>52.4</v>
+      </c>
+      <c r="G28" s="8">
+        <v>55.661173198678433</v>
+      </c>
+      <c r="H28" s="8">
+        <v>54.803777637975152</v>
+      </c>
+      <c r="I28" s="8">
+        <v>57.236792190411222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="8">
+        <v>42.7</v>
+      </c>
+      <c r="E29" s="8">
+        <v>48.723950354768604</v>
+      </c>
+      <c r="F29" s="8">
+        <v>46.6</v>
+      </c>
+      <c r="G29" s="8">
+        <v>49.484244299973746</v>
+      </c>
+      <c r="H29" s="8">
+        <v>51.867109861970469</v>
+      </c>
+      <c r="I29" s="8">
+        <v>52.14412411595751</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="8">
+        <v>55.4</v>
+      </c>
+      <c r="E30" s="8">
+        <v>55.333194548779296</v>
+      </c>
+      <c r="F30" s="8">
+        <v>55.2</v>
+      </c>
+      <c r="G30" s="8">
+        <v>58.921695312180596</v>
+      </c>
+      <c r="H30" s="8">
+        <v>58.059840400040898</v>
+      </c>
+      <c r="I30" s="8">
+        <v>58.899867561786387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="11">
         <v>56</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="9">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="E16" s="9">
-        <v>46.956365497950493</v>
-      </c>
-      <c r="F16" s="9">
-        <v>45</v>
-      </c>
-      <c r="G16" s="9">
-        <v>71.548846768947783</v>
-      </c>
-      <c r="H16" s="9">
-        <v>57.221320510113202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="9">
-        <v>39.6</v>
-      </c>
-      <c r="E17" s="9">
-        <v>48.545801289625764</v>
-      </c>
-      <c r="F17" s="9">
-        <v>38.5</v>
-      </c>
-      <c r="G17" s="9">
-        <v>38.314249611200928</v>
-      </c>
-      <c r="H17" s="9">
-        <v>43.112979304223508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="9">
-        <v>42.2</v>
-      </c>
-      <c r="E18" s="9">
-        <v>44.503621844304575</v>
-      </c>
-      <c r="F18" s="9">
-        <v>47</v>
-      </c>
-      <c r="G18" s="9">
-        <v>45.946405870476767</v>
-      </c>
-      <c r="H18" s="9">
-        <v>43.763926274435434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="9">
-        <v>63.1</v>
-      </c>
-      <c r="E19" s="9">
-        <v>54.516309353388422</v>
-      </c>
-      <c r="F19" s="9">
-        <v>54.6</v>
-      </c>
-      <c r="G19" s="9">
-        <v>58.463070851817896</v>
-      </c>
-      <c r="H19" s="9">
-        <v>60.42899593464336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="9">
-        <v>67.7</v>
-      </c>
-      <c r="E20" s="9">
-        <v>59.847788461062386</v>
-      </c>
-      <c r="F20" s="9">
-        <v>61.3</v>
-      </c>
-      <c r="G20" s="9">
-        <v>67.41358713478445</v>
-      </c>
-      <c r="H20" s="9">
-        <v>66.443201031331967</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="9">
-        <v>94.6</v>
-      </c>
-      <c r="E21" s="9">
-        <v>94.985632311792457</v>
-      </c>
-      <c r="F21" s="9">
-        <v>93.2</v>
-      </c>
-      <c r="G21" s="9">
-        <v>94.661991680690974</v>
-      </c>
-      <c r="H21" s="9">
-        <v>84.159995715788298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="9">
-        <v>48.4</v>
-      </c>
-      <c r="E23" s="9">
-        <v>52.979920455067457</v>
-      </c>
-      <c r="F23" s="9">
-        <v>51</v>
-      </c>
-      <c r="G23" s="9">
-        <v>52.831652000533559</v>
-      </c>
-      <c r="H23" s="9">
-        <v>54.231054935139049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="9">
-        <v>48.9</v>
-      </c>
-      <c r="E24" s="9">
-        <v>52.777791808065061</v>
-      </c>
-      <c r="F24" s="9">
-        <v>51.5</v>
-      </c>
-      <c r="G24" s="9">
-        <v>55.237569236259247</v>
-      </c>
-      <c r="H24" s="9">
-        <v>56.739347924847948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="9">
-        <v>48.1</v>
-      </c>
-      <c r="E25" s="9">
-        <v>49.028951111361195</v>
-      </c>
-      <c r="F25" s="9">
-        <v>47.9</v>
-      </c>
-      <c r="G25" s="9">
-        <v>49.39707084446713</v>
-      </c>
-      <c r="H25" s="9">
-        <v>52.285658613088522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="9">
-        <v>48.2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>51.492251224434185</v>
-      </c>
-      <c r="F27" s="9">
-        <v>49.3</v>
-      </c>
-      <c r="G27" s="9">
-        <v>42.707452760784747</v>
-      </c>
-      <c r="H27" s="9">
-        <v>53.09561038437198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="9">
-        <v>51.2</v>
-      </c>
-      <c r="E28" s="9">
-        <v>52.713048090824572</v>
-      </c>
-      <c r="F28" s="9">
-        <v>52.4</v>
-      </c>
-      <c r="G28" s="9">
-        <v>55.661173198678433</v>
-      </c>
-      <c r="H28" s="9">
-        <v>54.803777637975152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="9">
-        <v>42.7</v>
-      </c>
-      <c r="E29" s="9">
-        <v>48.723950354768604</v>
-      </c>
-      <c r="F29" s="9">
-        <v>46.6</v>
-      </c>
-      <c r="G29" s="9">
-        <v>49.484244299973746</v>
-      </c>
-      <c r="H29" s="9">
-        <v>51.867109861970469</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="9">
-        <v>55.4</v>
-      </c>
-      <c r="E30" s="9">
-        <v>55.333194548779296</v>
-      </c>
-      <c r="F30" s="9">
-        <v>55.2</v>
-      </c>
-      <c r="G30" s="9">
-        <v>58.921695312180596</v>
-      </c>
-      <c r="H30" s="9">
-        <v>58.059840400040898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="E31" s="11">
+        <v>58.32449088688341</v>
+      </c>
+      <c r="F31" s="11">
+        <v>56.6</v>
+      </c>
+      <c r="G31" s="8">
+        <v>60.257647550127068</v>
+      </c>
+      <c r="H31" s="8">
+        <v>62.006458632506479</v>
+      </c>
+      <c r="I31" s="8">
+        <v>60.746138294784885</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="12">
-        <v>56</v>
-      </c>
-      <c r="E31" s="12">
-        <v>58.32449088688341</v>
-      </c>
-      <c r="F31" s="12">
-        <v>56.6</v>
-      </c>
-      <c r="G31" s="9">
-        <v>60.257647550127068</v>
-      </c>
-      <c r="H31" s="9">
-        <v>62.006458632506479</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="C32" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="1:9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="C33" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="D33" s="8">
+        <v>37.439764080983835</v>
+      </c>
+      <c r="E33" s="8">
+        <v>40.12008976430198</v>
+      </c>
+      <c r="F33" s="31">
+        <v>44.52735098573924</v>
+      </c>
+      <c r="G33" s="33">
+        <v>44.684196227954708</v>
+      </c>
+      <c r="H33" s="33">
+        <v>48.930112899436295</v>
+      </c>
+      <c r="I33" s="33">
+        <v>52.19516363306797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="9">
-        <v>37.439764080983835</v>
-      </c>
-      <c r="E33" s="9">
-        <v>40.12008976430198</v>
-      </c>
-      <c r="F33" s="32">
-        <v>44.52735098573924</v>
-      </c>
-      <c r="G33" s="34">
-        <v>44.684196227954708</v>
-      </c>
-      <c r="H33" s="34">
-        <v>48.930112899436295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="C34" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="D34" s="8">
+        <v>46.49974735295087</v>
+      </c>
+      <c r="E34" s="8">
+        <v>50.779257929470738</v>
+      </c>
+      <c r="F34" s="31">
+        <v>49.788535609150117</v>
+      </c>
+      <c r="G34" s="33">
+        <v>52.230183183569579</v>
+      </c>
+      <c r="H34" s="33">
+        <v>52.789868000166784</v>
+      </c>
+      <c r="I34" s="33">
+        <v>57.259390321892035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="9">
-        <v>46.49974735295087</v>
-      </c>
-      <c r="E34" s="9">
-        <v>50.779257929470738</v>
-      </c>
-      <c r="F34" s="32">
-        <v>49.788535609150117</v>
-      </c>
-      <c r="G34" s="34">
-        <v>52.230183183569579</v>
-      </c>
-      <c r="H34" s="34">
-        <v>52.789868000166784</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="C35" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="D35" s="8">
+        <v>48.377566195441865</v>
+      </c>
+      <c r="E35" s="8">
+        <v>52.031241354166362</v>
+      </c>
+      <c r="F35" s="31">
+        <v>52.165589704616806</v>
+      </c>
+      <c r="G35" s="33">
+        <v>56.39114246304765</v>
+      </c>
+      <c r="H35" s="33">
+        <v>54.901887367193908</v>
+      </c>
+      <c r="I35" s="33">
+        <v>52.31297951131355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="9">
-        <v>48.377566195441865</v>
-      </c>
-      <c r="E35" s="9">
-        <v>52.031241354166362</v>
-      </c>
-      <c r="F35" s="32">
-        <v>52.165589704616806</v>
-      </c>
-      <c r="G35" s="34">
-        <v>56.39114246304765</v>
-      </c>
-      <c r="H35" s="34">
-        <v>54.901887367193908</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="C36" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="D36" s="8">
+        <v>51.090005462591485</v>
+      </c>
+      <c r="E36" s="8">
+        <v>55.909722002143759</v>
+      </c>
+      <c r="F36" s="31">
+        <v>54.891441042724587</v>
+      </c>
+      <c r="G36" s="33">
+        <v>56.392024675361114</v>
+      </c>
+      <c r="H36" s="33">
+        <v>60.094111873908361</v>
+      </c>
+      <c r="I36" s="33">
+        <v>56.454847922343262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="9">
-        <v>51.090005462591485</v>
-      </c>
-      <c r="E36" s="9">
-        <v>55.909722002143759</v>
-      </c>
-      <c r="F36" s="32">
-        <v>54.891441042724587</v>
-      </c>
-      <c r="G36" s="34">
-        <v>56.392024675361114</v>
-      </c>
-      <c r="H36" s="34">
-        <v>60.094111873908361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+      <c r="C37" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="16" t="s">
+      <c r="D37" s="9">
+        <v>55.275395644542037</v>
+      </c>
+      <c r="E37" s="9">
+        <v>58.21414556949383</v>
+      </c>
+      <c r="F37" s="32">
+        <v>54.537503974844626</v>
+      </c>
+      <c r="G37" s="9">
+        <v>59.84288599012875</v>
+      </c>
+      <c r="H37" s="9">
+        <v>62.111607472761982</v>
+      </c>
+      <c r="I37" s="9">
+        <v>58.590714884518619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="10">
-        <v>55.275395644542037</v>
-      </c>
-      <c r="E37" s="10">
-        <v>58.21414556949383</v>
-      </c>
-      <c r="F37" s="33">
-        <v>54.537503974844626</v>
-      </c>
-      <c r="G37" s="10">
-        <v>59.84288599012875</v>
-      </c>
-      <c r="H37" s="10">
-        <v>62.111607472761982</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="B38" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="34" t="s">
         <v>100</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="135" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="135" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>